--- a/data/KOTAKBANK.xlsx
+++ b/data/KOTAKBANK.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H497"/>
+  <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13329,6 +13329,84 @@
         <v>20070.5</v>
       </c>
     </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B498">
+        <v>769.9</v>
+      </c>
+      <c r="C498">
+        <v>779.5</v>
+      </c>
+      <c r="D498">
+        <v>765</v>
+      </c>
+      <c r="E498">
+        <v>769.9</v>
+      </c>
+      <c r="F498">
+        <v>769.65</v>
+      </c>
+      <c r="G498">
+        <v>1306279</v>
+      </c>
+      <c r="H498">
+        <v>10076.48</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B499">
+        <v>771.1</v>
+      </c>
+      <c r="C499">
+        <v>786.3</v>
+      </c>
+      <c r="D499">
+        <v>771.1</v>
+      </c>
+      <c r="E499">
+        <v>779.25</v>
+      </c>
+      <c r="F499">
+        <v>778.9</v>
+      </c>
+      <c r="G499">
+        <v>1871296</v>
+      </c>
+      <c r="H499">
+        <v>14576.87</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B500">
+        <v>779.8</v>
+      </c>
+      <c r="C500">
+        <v>796</v>
+      </c>
+      <c r="D500">
+        <v>779.5</v>
+      </c>
+      <c r="E500">
+        <v>792</v>
+      </c>
+      <c r="F500">
+        <v>793.15</v>
+      </c>
+      <c r="G500">
+        <v>1804668</v>
+      </c>
+      <c r="H500">
+        <v>14281.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
